--- a/2019_kidarifund_dataset_after.xlsx
+++ b/2019_kidarifund_dataset_after.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sw082\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khb72\OneDrive\바탕 화면\대학교\3학년\1학기\키다리\금융심사자동화\최종데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D7BB35-7E69-4E76-9562-D00BFF84ED55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="405" windowWidth="22710" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3792" yWindow="408" windowWidth="22716" windowHeight="14976"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$57</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,50 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={27D552E4-6439-429A-8DCE-8260A24117A5}</author>
-    <author>tc={8DD4E28D-9261-4D22-9EC3-21618202DAEC}</author>
     <author>tc={EC568F29-F10A-4408-8FE8-07555C593E85}</author>
-    <author>tc={D5D8F115-1DDF-4231-B377-37F605681252}</author>
-    <author/>
-    <author>tc={F46C8EFA-9A56-4C28-AB79-34202A41F032}</author>
-    <author>tc={C8C7D158-35CF-4CDD-814C-7CF4A26D43A9}</author>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0" shapeId="0" xr:uid="{27D552E4-6439-429A-8DCE-8260A24117A5}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    기계공학부 소속 RACE라는 단체에서 자동차 부품 발주 목적으로 대출신청</t>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="1" shapeId="0" xr:uid="{8DD4E28D-9261-4D22-9EC3-21618202DAEC}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    18번과 같은 단체, 총 3M 대출</t>
-      </text>
-    </comment>
-    <comment ref="B35" authorId="2" shapeId="0" xr:uid="{EC568F29-F10A-4408-8FE8-07555C593E85}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    국가근로장학금으로 작성돼있음</t>
-      </text>
-    </comment>
-    <comment ref="B49" authorId="3" shapeId="0" xr:uid="{D5D8F115-1DDF-4231-B377-37F605681252}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    대출금 상환계획에 알바 계획 예정</t>
-      </text>
-    </comment>
-    <comment ref="M55" authorId="4" shapeId="0" xr:uid="{38988345-500D-471E-87A4-E6B75413FB0C}">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,29 +50,14 @@
             <color theme="1"/>
             <rFont val="맑은 고딕"/>
             <family val="2"/>
+            <charset val="129"/>
             <scheme val="minor"/>
           </rPr>
-          <t>======
-ID#AAAAUBy9tDs
-이민철    (2022-01-28 07:49:48)
-예금주: ZHAO HUIZH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M56" authorId="5" shapeId="0" xr:uid="{F46C8EFA-9A56-4C28-AB79-34202A41F032}">
-      <text>
-        <t>[스레드 댓글]
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
-    2018년 대출자</t>
-      </text>
-    </comment>
-    <comment ref="M57" authorId="6" shapeId="0" xr:uid="{C8C7D158-35CF-4CDD-814C-7CF4A26D43A9}">
-      <text>
-        <t>[스레드 댓글]
-사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
-댓글:
-    2020년 대출자</t>
+    국가근로장학금으로 작성돼있음</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -119,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>대출금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,9 +153,6 @@
     <t>강솔희</t>
   </si>
   <si>
-    <t>RACE</t>
-  </si>
-  <si>
     <t>유상민</t>
   </si>
   <si>
@@ -302,10 +245,6 @@
   </si>
   <si>
     <t>윤지섭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,8 +259,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,13 +274,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -688,25 +620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="20.625" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" customWidth="1"/>
     <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +655,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -741,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>300000</v>
       </c>
@@ -768,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G53" si="0">H2+I2+J2</f>
+        <f t="shared" ref="G2:G13" si="0">H2+I2+J2</f>
         <v>6</v>
       </c>
       <c r="H2">
@@ -781,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K53" si="1">IF(G2=H2,"매우우수",IF(J2&gt;0,"불량",IF(I2/G2&lt;0.5,"우수","불량")))</f>
+        <f t="shared" ref="K2:K13" si="1">IF(G2=H2,"매우우수",IF(J2&gt;0,"불량",IF(I2/G2&lt;0.5,"우수","불량")))</f>
         <v>우수</v>
       </c>
       <c r="L2">
@@ -791,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>300000</v>
       </c>
@@ -802,7 +734,7 @@
         <v>460000</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D53" si="2">B3 - C3</f>
+        <f t="shared" ref="D3:D13" si="2">B3 - C3</f>
         <v>240000</v>
       </c>
       <c r="E3">
@@ -835,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>300000</v>
       </c>
@@ -879,7 +811,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>300000</v>
       </c>
@@ -923,7 +855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>200000</v>
       </c>
@@ -940,8 +872,8 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>57</v>
+      <c r="F6" s="2">
+        <v>8</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
@@ -967,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>300000</v>
       </c>
@@ -1011,7 +943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>300000</v>
       </c>
@@ -1055,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>300000</v>
       </c>
@@ -1099,7 +1031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>200000</v>
       </c>
@@ -1143,7 +1075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>300000</v>
       </c>
@@ -1187,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>300000</v>
       </c>
@@ -1231,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>300000</v>
       </c>
@@ -1275,30 +1207,32 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>1000000</v>
+        <v>240000</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="C14">
-        <f>-D60</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B14 - C14</f>
+        <v>300000</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
+      <c r="F14" s="2">
+        <v>7</v>
+      </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H14+I14+J14</f>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1307,52 +1241,52 @@
         <v>0</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
+        <f>IF(G14=H14,"매우우수",IF(J14&gt;0,"불량",IF(I14/G14&lt;0.5,"우수","불량")))</f>
+        <v>우수</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>240000</v>
+        <v>300000</v>
       </c>
       <c r="B15">
-        <v>600000</v>
+        <v>900000</v>
       </c>
       <c r="C15">
-        <v>300000</v>
+        <v>700000</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>300000</v>
+        <f>B15 - C15</f>
+        <v>200000</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>H15+I15+J15</f>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>우수</v>
+        <f>IF(G15=H15,"매우우수",IF(J15&gt;0,"불량",IF(I15/G15&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1361,42 +1295,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>300000</v>
       </c>
       <c r="B16">
-        <v>900000</v>
+        <v>700000</v>
       </c>
       <c r="C16">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f>B16 - C16</f>
         <v>200000</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H16+I16+J16</f>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G16=H16,"매우우수",IF(J16&gt;0,"불량",IF(I16/G16&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1405,7 +1339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>300000</v>
       </c>
@@ -1416,31 +1350,31 @@
         <v>500000</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f>B17 - C17</f>
         <v>200000</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>H17+I17+J17</f>
+        <v>6</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
+        <f>IF(G17=H17,"매우우수",IF(J17&gt;0,"불량",IF(I17/G17&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -1449,42 +1383,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>300000</v>
       </c>
       <c r="B18">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="C18">
-        <v>500000</v>
+        <v>290000</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>200000</v>
+        <f>B18 - C18</f>
+        <v>310000</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>H18+I18+J18</f>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G18=H18,"매우우수",IF(J18&gt;0,"불량",IF(I18/G18&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1493,60 +1427,63 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>2000000</v>
+        <v>300000</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>600000</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B19 - C19</f>
+        <v>100000</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>H19+I19+J19</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
+        <f>IF(G19=H19,"매우우수",IF(J19&gt;0,"불량",IF(I19/G19&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B20">
-        <v>600000</v>
+        <v>430000</v>
       </c>
       <c r="C20">
-        <v>290000</v>
+        <v>200000</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>310000</v>
+        <f>B20 - C20</f>
+        <v>230000</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1555,55 +1492,55 @@
         <v>2</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>H20+I20+J20</f>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
+        <f>IF(G20=H20,"매우우수",IF(J20&gt;0,"불량",IF(I20/G20&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>300000</v>
       </c>
       <c r="B21">
-        <v>700000</v>
+        <v>950000</v>
       </c>
       <c r="C21">
-        <v>600000</v>
+        <v>710000</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <f>B21 - C21</f>
+        <v>240000</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H21+I21+J21</f>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1612,96 +1549,96 @@
         <v>0</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(G21=H21,"매우우수",IF(J21&gt;0,"불량",IF(I21/G21&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>200000</v>
+        <v>280000</v>
       </c>
       <c r="B22">
         <v>430000</v>
       </c>
       <c r="C22">
-        <v>200000</v>
+        <v>360000</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>230000</v>
+        <f>B22 - C22</f>
+        <v>70000</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H22+I22+J22</f>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G22=H22,"매우우수",IF(J22&gt;0,"불량",IF(I22/G22&lt;0.5,"우수","불량")))</f>
+        <v>우수</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>300000</v>
       </c>
       <c r="B23">
-        <v>950000</v>
+        <v>300000</v>
       </c>
       <c r="C23">
-        <v>710000</v>
+        <v>210000</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>240000</v>
+        <f>B23 - C23</f>
+        <v>90000</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>H23+I23+J23</f>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>4</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G23=H23,"매우우수",IF(J23&gt;0,"불량",IF(I23/G23&lt;0.5,"우수","불량")))</f>
+        <v>우수</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -1710,183 +1647,183 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>280000</v>
+        <v>300000</v>
       </c>
       <c r="B24">
+        <v>1040000</v>
+      </c>
+      <c r="C24">
+        <v>880000</v>
+      </c>
+      <c r="D24">
+        <f>B24 - C24</f>
+        <v>160000</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <f>H24+I24+J24</f>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(G24=H24,"매우우수",IF(J24&gt;0,"불량",IF(I24/G24&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B25">
+        <v>550000</v>
+      </c>
+      <c r="C25">
         <v>430000</v>
       </c>
-      <c r="C24">
-        <v>360000</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>70000</v>
-      </c>
-      <c r="E24">
+      <c r="D25">
+        <f>B25 - C25</f>
+        <v>120000</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <f>H25+I25+J25</f>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(G25=H25,"매우우수",IF(J25&gt;0,"불량",IF(I25/G25&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B26">
+        <v>900000</v>
+      </c>
+      <c r="C26">
+        <v>450000</v>
+      </c>
+      <c r="D26">
+        <f>B26 - C26</f>
+        <v>450000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <f>H26+I26+J26</f>
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(G26=H26,"매우우수",IF(J26&gt;0,"불량",IF(I26/G26&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B27">
+        <v>600000</v>
+      </c>
+      <c r="C27">
+        <v>400000</v>
+      </c>
+      <c r="D27">
+        <f>B27 - C27</f>
+        <v>200000</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
         <v>4</v>
       </c>
-      <c r="F24" s="2">
-        <v>7</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24" t="str">
-        <f t="shared" si="1"/>
-        <v>우수</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B25">
-        <v>300000</v>
-      </c>
-      <c r="C25">
-        <v>210000</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>90000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>4</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" si="1"/>
-        <v>우수</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B26">
-        <v>1040000</v>
-      </c>
-      <c r="C26">
-        <v>880000</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B27">
-        <v>550000</v>
-      </c>
-      <c r="C27">
-        <v>430000</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f>H27+I27+J27</f>
         <v>2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(G27=H27,"매우우수",IF(J27&gt;0,"불량",IF(I27/G27&lt;0.5,"우수","불량")))</f>
         <v>불량</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>300000</v>
       </c>
@@ -1894,244 +1831,244 @@
         <v>900000</v>
       </c>
       <c r="C28">
+        <v>480000</v>
+      </c>
+      <c r="D28">
+        <f>B28 - C28</f>
+        <v>420000</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>7</v>
+      </c>
+      <c r="G28">
+        <f>H28+I28+J28</f>
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(G28=H28,"매우우수",IF(J28&gt;0,"불량",IF(I28/G28&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B29">
         <v>450000</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>450000</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>6</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>3</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" si="1"/>
+      <c r="C29">
+        <v>430000</v>
+      </c>
+      <c r="D29">
+        <f>B29 - C29</f>
+        <v>20000</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f>H29+I29+J29</f>
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(G29=H29,"매우우수",IF(J29&gt;0,"불량",IF(I29/G29&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B30">
+        <v>800000</v>
+      </c>
+      <c r="C30">
+        <v>800000</v>
+      </c>
+      <c r="D30">
+        <f>B30 - C30</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f>H30+I30+J30</f>
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(G30=H30,"매우우수",IF(J30&gt;0,"불량",IF(I30/G30&lt;0.5,"우수","불량")))</f>
         <v>불량</v>
       </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B29">
-        <v>600000</v>
-      </c>
-      <c r="C29">
-        <v>400000</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B30">
-        <v>900000</v>
-      </c>
-      <c r="C30">
-        <v>480000</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>420000</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B31">
+        <v>1520000</v>
+      </c>
+      <c r="C31">
+        <v>1300000</v>
+      </c>
+      <c r="D31">
+        <f>B31 - C31</f>
+        <v>220000</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <f>H31+I31+J31</f>
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(G31=H31,"매우우수",IF(J31&gt;0,"불량",IF(I31/G31&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B32">
+        <v>650000</v>
+      </c>
+      <c r="C32">
+        <v>228000</v>
+      </c>
+      <c r="D32">
+        <f>B32 - C32</f>
+        <v>422000</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
         <v>7</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B31">
-        <v>450000</v>
-      </c>
-      <c r="C31">
-        <v>430000</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="1"/>
+      <c r="G32">
+        <f>H32+I32+J32</f>
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(G32=H32,"매우우수",IF(J32&gt;0,"불량",IF(I32/G32&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B32">
-        <v>800000</v>
-      </c>
-      <c r="C32">
-        <v>800000</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>300000</v>
       </c>
       <c r="B33">
-        <v>1520000</v>
+        <v>1500000</v>
       </c>
       <c r="C33">
-        <v>1300000</v>
+        <v>270000</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>220000</v>
+        <f>B33 - C33</f>
+        <v>1230000</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>H33+I33+J33</f>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2140,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(G33=H33,"매우우수",IF(J33&gt;0,"불량",IF(I33/G33&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
       <c r="L33">
@@ -2150,732 +2087,732 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>300000</v>
       </c>
       <c r="B34">
-        <v>650000</v>
+        <v>550000</v>
       </c>
       <c r="C34">
-        <v>228000</v>
+        <v>450000</v>
       </c>
       <c r="D34">
-        <f t="shared" si="2"/>
-        <v>422000</v>
+        <f>B34 - C34</f>
+        <v>100000</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
+        <v>8</v>
+      </c>
+      <c r="G34">
+        <f>H34+I34+J34</f>
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(G34=H34,"매우우수",IF(J34&gt;0,"불량",IF(I34/G34&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B35">
+        <v>600000</v>
+      </c>
+      <c r="C35">
+        <v>500000</v>
+      </c>
+      <c r="D35">
+        <f>B35 - C35</f>
+        <v>100000</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
         <v>7</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="1"/>
+      <c r="G35">
+        <f>H35+I35+J35</f>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(G35=H35,"매우우수",IF(J35&gt;0,"불량",IF(I35/G35&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B35">
-        <v>1500000</v>
-      </c>
-      <c r="C35">
-        <v>270000</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>1230000</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="1"/>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B36">
+        <v>700000</v>
+      </c>
+      <c r="C36">
+        <v>460000</v>
+      </c>
+      <c r="D36">
+        <f>B36 - C36</f>
+        <v>240000</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <f>H36+I36+J36</f>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(G36=H36,"매우우수",IF(J36&gt;0,"불량",IF(I36/G36&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B37">
+        <v>1300000</v>
+      </c>
+      <c r="C37">
+        <v>300000</v>
+      </c>
+      <c r="D37">
+        <f>B37 - C37</f>
+        <v>1000000</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>H37+I37+J37</f>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(G37=H37,"매우우수",IF(J37&gt;0,"불량",IF(I37/G37&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>250000</v>
+      </c>
+      <c r="B38">
+        <v>100000</v>
+      </c>
+      <c r="C38">
+        <v>60000</v>
+      </c>
+      <c r="D38">
+        <f>B38 - C38</f>
+        <v>40000</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>H38+I38+J38</f>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(G38=H38,"매우우수",IF(J38&gt;0,"불량",IF(I38/G38&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B36">
-        <v>550000</v>
-      </c>
-      <c r="C36">
-        <v>450000</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>200000</v>
+      </c>
+      <c r="B39">
+        <v>800000</v>
+      </c>
+      <c r="C39">
+        <v>500000</v>
+      </c>
+      <c r="D39">
+        <f>B39 - C39</f>
+        <v>300000</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <f>H39+I39+J39</f>
         <v>4</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="1"/>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(G39=H39,"매우우수",IF(J39&gt;0,"불량",IF(I39/G39&lt;0.5,"우수","불량")))</f>
         <v>불량</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B37">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B40">
+        <v>1000000</v>
+      </c>
+      <c r="C40">
+        <v>820000</v>
+      </c>
+      <c r="D40">
+        <f>B40 - C40</f>
+        <v>180000</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f>H40+I40+J40</f>
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(G40=H40,"매우우수",IF(J40&gt;0,"불량",IF(I40/G40&lt;0.5,"우수","불량")))</f>
+        <v>우수</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B41">
         <v>600000</v>
-      </c>
-      <c r="C37">
-        <v>500000</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2">
-        <v>7</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B38">
-        <v>700000</v>
-      </c>
-      <c r="C38">
-        <v>460000</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>240000</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>7</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B39">
-        <v>1300000</v>
-      </c>
-      <c r="C39">
-        <v>300000</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>1000000</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>250000</v>
-      </c>
-      <c r="B40">
-        <v>100000</v>
-      </c>
-      <c r="C40">
-        <v>60000</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>200000</v>
-      </c>
-      <c r="B41">
-        <v>800000</v>
       </c>
       <c r="C41">
         <v>500000</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
-        <v>300000</v>
+        <f>B41 - C41</f>
+        <v>100000</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="2">
         <v>7</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f>H41+I41+J41</f>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(G41=H41,"매우우수",IF(J41&gt;0,"불량",IF(I41/G41&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B42">
+        <v>700000</v>
+      </c>
+      <c r="C42">
+        <v>560000</v>
+      </c>
+      <c r="D42">
+        <f>B42 - C42</f>
+        <v>140000</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <f>H42+I42+J42</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(G42=H42,"매우우수",IF(J42&gt;0,"불량",IF(I42/G42&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B43">
+        <v>550000</v>
+      </c>
+      <c r="C43">
+        <v>310000</v>
+      </c>
+      <c r="D43">
+        <f>B43 - C43</f>
+        <v>240000</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f>H43+I43+J43</f>
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43" t="str">
+        <f>IF(G43=H43,"매우우수",IF(J43&gt;0,"불량",IF(I43/G43&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B44">
+        <v>1000000</v>
+      </c>
+      <c r="C44">
+        <v>250000</v>
+      </c>
+      <c r="D44">
+        <f>B44 - C44</f>
+        <v>750000</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <f>H44+I44+J44</f>
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
         <v>4</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="1"/>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <f>IF(G44=H44,"매우우수",IF(J44&gt;0,"불량",IF(I44/G44&lt;0.5,"우수","불량")))</f>
         <v>불량</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B42">
-        <v>1000000</v>
-      </c>
-      <c r="C42">
-        <v>820000</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>180000</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="1"/>
-        <v>우수</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B43">
-        <v>600000</v>
-      </c>
-      <c r="C43">
-        <v>500000</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>7</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B44">
-        <v>700000</v>
-      </c>
-      <c r="C44">
-        <v>560000</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-      <c r="E44">
-        <v>2</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
-      </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
-        <v>300000</v>
+        <v>200000</v>
       </c>
       <c r="B45">
-        <v>550000</v>
+        <v>750000</v>
       </c>
       <c r="C45">
-        <v>310000</v>
+        <v>488000</v>
       </c>
       <c r="D45">
         <f>B45 - C45</f>
-        <v>240000</v>
+        <v>262000</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>H45+I45+J45</f>
+        <v>4</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G45=H45,"매우우수",IF(J45&gt;0,"불량",IF(I45/G45&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>300000</v>
       </c>
       <c r="B46">
-        <v>1000000</v>
+        <v>820000</v>
       </c>
       <c r="C46">
-        <v>250000</v>
+        <v>810000</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
-        <v>750000</v>
+        <f>B46 - C46</f>
+        <v>10000</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" s="2">
         <v>7</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>H46+I46+J46</f>
+        <v>6</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46" t="str">
+        <f>IF(G46=H46,"매우우수",IF(J46&gt;0,"불량",IF(I46/G46&lt;0.5,"우수","불량")))</f>
+        <v>불량</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B47">
+        <v>200000</v>
+      </c>
+      <c r="C47">
+        <v>300000</v>
+      </c>
+      <c r="D47">
+        <f>B47 - C47</f>
+        <v>-100000</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f>H47+I47+J47</f>
         <v>4</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="1"/>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="str">
+        <f>IF(G47=H47,"매우우수",IF(J47&gt;0,"불량",IF(I47/G47&lt;0.5,"우수","불량")))</f>
         <v>불량</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>200000</v>
-      </c>
-      <c r="B47">
-        <v>750000</v>
-      </c>
-      <c r="C47">
-        <v>488000</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>262000</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>300000</v>
       </c>
       <c r="B48">
-        <v>820000</v>
+        <v>600000</v>
       </c>
       <c r="C48">
-        <v>810000</v>
+        <v>600000</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
-        <v>10000</v>
+        <f>B48 - C48</f>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f>H48+I48+J48</f>
+        <v>6</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="str">
+        <f>IF(G48=H48,"매우우수",IF(J48&gt;0,"불량",IF(I48/G48&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
+        <v>300000</v>
+      </c>
+      <c r="B49">
+        <v>1100000</v>
+      </c>
+      <c r="C49">
+        <v>470000</v>
+      </c>
+      <c r="D49">
+        <f>B49 - C49</f>
+        <v>630000</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>7</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>3</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>2</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B49">
-        <v>200000</v>
-      </c>
-      <c r="C49">
-        <v>300000</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>-100000</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49" s="2">
-        <v>2</v>
-      </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>H49+I49+J49</f>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="1"/>
-        <v>불량</v>
+        <f>IF(G49=H49,"매우우수",IF(J49&gt;0,"불량",IF(I49/G49&lt;0.5,"우수","불량")))</f>
+        <v>매우우수</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>300000</v>
       </c>
       <c r="B50">
-        <v>600000</v>
+        <v>700000</v>
       </c>
       <c r="C50">
-        <v>600000</v>
+        <v>350000</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>B50 - C50</f>
+        <v>350000</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f>H50+I50+J50</f>
         <v>6</v>
       </c>
       <c r="H50">
@@ -2888,52 +2825,52 @@
         <v>0</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(G50=H50,"매우우수",IF(J50&gt;0,"불량",IF(I50/G50&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>300000</v>
       </c>
       <c r="B51">
-        <v>1100000</v>
+        <v>900000</v>
       </c>
       <c r="C51">
-        <v>470000</v>
+        <v>400000</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
-        <v>630000</v>
+        <f>B51 - C51</f>
+        <v>500000</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>H51+I51+J51</f>
+        <v>6</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="1"/>
-        <v>매우우수</v>
+        <f>IF(G51=H51,"매우우수",IF(J51&gt;0,"불량",IF(I51/G51&lt;0.5,"우수","불량")))</f>
+        <v>우수</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -2942,7 +2879,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>300000</v>
       </c>
@@ -2950,24 +2887,24 @@
         <v>700000</v>
       </c>
       <c r="C52">
-        <v>350000</v>
+        <v>210000</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
-        <v>350000</v>
+        <f t="shared" ref="D52:D55" si="3">B52 - C52</f>
+        <v>490000</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" ref="G52:G53" si="4">H52+I52+J52</f>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -2976,29 +2913,29 @@
         <v>0</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K52:K55" si="5">IF(G52=H52,"매우우수",IF(J52&gt;0,"불량",IF(I52/G52&lt;0.5,"우수","불량")))</f>
         <v>매우우수</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>300000</v>
       </c>
       <c r="B53">
-        <v>900000</v>
+        <v>1300000</v>
       </c>
       <c r="C53">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
-        <v>500000</v>
+        <f t="shared" si="3"/>
+        <v>800000</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3007,21 +2944,21 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="1"/>
-        <v>우수</v>
+        <f t="shared" si="5"/>
+        <v>매우우수</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3030,76 +2967,74 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>300000</v>
       </c>
       <c r="B54">
+        <v>1100000</v>
+      </c>
+      <c r="C54">
+        <v>400000</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
         <v>700000</v>
       </c>
-      <c r="C54">
-        <v>210000</v>
-      </c>
-      <c r="D54">
-        <f t="shared" ref="D54:D57" si="3">B54 - C54</f>
-        <v>490000</v>
-      </c>
       <c r="E54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2">
         <v>2</v>
       </c>
       <c r="G54">
-        <f t="shared" ref="G54:G55" si="4">H54+I54+J54</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" ref="K54:K57" si="5">IF(G54=H54,"매우우수",IF(J54&gt;0,"불량",IF(I54/G54&lt;0.5,"우수","불량")))</f>
-        <v>매우우수</v>
+        <f t="shared" si="5"/>
+        <v>불량</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>300000</v>
       </c>
       <c r="B55">
-        <v>1300000</v>
+        <v>600000</v>
       </c>
       <c r="C55">
-        <v>500000</v>
+        <v>150000</v>
       </c>
       <c r="D55">
         <f t="shared" si="3"/>
-        <v>800000</v>
+        <v>450000</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3115,97 +3050,11 @@
         <v>1</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B56">
-        <v>1100000</v>
-      </c>
-      <c r="C56">
-        <v>400000</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="3"/>
-        <v>700000</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>2</v>
-      </c>
-      <c r="G56">
-        <v>6</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>2</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="str">
-        <f t="shared" si="5"/>
-        <v>불량</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>300000</v>
-      </c>
-      <c r="B57">
-        <v>600000</v>
-      </c>
-      <c r="C57">
-        <v>150000</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="3"/>
-        <v>450000</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="2">
-        <v>4</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57" t="str">
-        <f t="shared" si="5"/>
-        <v>매우우수</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N57" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N57"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
